--- a/data/pca/factorExposure/factorExposure_2013-05-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001132615986965027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001894863094454567</v>
+      </c>
+      <c r="C2">
+        <v>-0.03316087167661952</v>
+      </c>
+      <c r="D2">
+        <v>0.007814446256763084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.00225732644799249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006091061044735485</v>
+      </c>
+      <c r="C4">
+        <v>-0.08475100312782946</v>
+      </c>
+      <c r="D4">
+        <v>0.07778968232740599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.000542437377489326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0133461470038303</v>
+      </c>
+      <c r="C6">
+        <v>-0.1078692990223072</v>
+      </c>
+      <c r="D6">
+        <v>0.03275804332806293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002462565426697105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004843658642349735</v>
+      </c>
+      <c r="C7">
+        <v>-0.05268829672506568</v>
+      </c>
+      <c r="D7">
+        <v>0.04033066382508652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001111501972215535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00566357609765792</v>
+      </c>
+      <c r="C8">
+        <v>-0.03668156046969819</v>
+      </c>
+      <c r="D8">
+        <v>0.03930668651255398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005586544488424729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004090927939303931</v>
+      </c>
+      <c r="C9">
+        <v>-0.06979312327541529</v>
+      </c>
+      <c r="D9">
+        <v>0.07175500270520885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002124449685093139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005655703487109747</v>
+      </c>
+      <c r="C10">
+        <v>-0.07375420657976214</v>
+      </c>
+      <c r="D10">
+        <v>-0.2109605992782539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003868331209126013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005252447485198738</v>
+      </c>
+      <c r="C11">
+        <v>-0.07785713437142018</v>
+      </c>
+      <c r="D11">
+        <v>0.06556997352194274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003044569331911827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004031877480636973</v>
+      </c>
+      <c r="C12">
+        <v>-0.06372701889405361</v>
+      </c>
+      <c r="D12">
+        <v>0.04773380199413458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002898070592979724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008586733666201368</v>
+      </c>
+      <c r="C13">
+        <v>-0.06924370908665689</v>
+      </c>
+      <c r="D13">
+        <v>0.06552924434020406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002448756282480122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.0015247561325128</v>
+      </c>
+      <c r="C14">
+        <v>-0.04649276843180139</v>
+      </c>
+      <c r="D14">
+        <v>0.01371733289531037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002588673670822069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005863155884027792</v>
+      </c>
+      <c r="C15">
+        <v>-0.03841005407170336</v>
+      </c>
+      <c r="D15">
+        <v>0.03607635909656498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002014381004178659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004916387602651958</v>
+      </c>
+      <c r="C16">
+        <v>-0.06439415484989033</v>
+      </c>
+      <c r="D16">
+        <v>0.04979120353956691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001252260726707427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008953758607590364</v>
+      </c>
+      <c r="C20">
+        <v>-0.0647303389353735</v>
+      </c>
+      <c r="D20">
+        <v>0.05635582793764319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005749576624564241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009846262194811708</v>
+      </c>
+      <c r="C21">
+        <v>-0.02331174601148052</v>
+      </c>
+      <c r="D21">
+        <v>0.0335085506814086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01692941289993708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006804807820854531</v>
+      </c>
+      <c r="C22">
+        <v>-0.09265513316164857</v>
+      </c>
+      <c r="D22">
+        <v>0.1022036727923996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0172714810302265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006616288050364299</v>
+      </c>
+      <c r="C23">
+        <v>-0.09352992479834775</v>
+      </c>
+      <c r="D23">
+        <v>0.1025197504330176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002914818165174334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004857355093150698</v>
+      </c>
+      <c r="C24">
+        <v>-0.07298716385597567</v>
+      </c>
+      <c r="D24">
+        <v>0.0622742816322117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.0046298750798294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002733018002967818</v>
+      </c>
+      <c r="C25">
+        <v>-0.07705810994163872</v>
+      </c>
+      <c r="D25">
+        <v>0.06701511404459755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006442177198204611</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003612247750171139</v>
+      </c>
+      <c r="C26">
+        <v>-0.04020612057989653</v>
+      </c>
+      <c r="D26">
+        <v>0.02840389520158032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.008106549304287711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000414233563340014</v>
+      </c>
+      <c r="C28">
+        <v>-0.1243919497318793</v>
+      </c>
+      <c r="D28">
+        <v>-0.3091669504419426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002143012108263674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003248909190043061</v>
+      </c>
+      <c r="C29">
+        <v>-0.04841074169818939</v>
+      </c>
+      <c r="D29">
+        <v>0.01380091837113605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004402391683667801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008811325032390847</v>
+      </c>
+      <c r="C30">
+        <v>-0.1372736140995165</v>
+      </c>
+      <c r="D30">
+        <v>0.1100937604277306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0004954951694369011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006118407449836365</v>
+      </c>
+      <c r="C31">
+        <v>-0.0454165823284006</v>
+      </c>
+      <c r="D31">
+        <v>0.03236599533761631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001968557359085133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004082690595174965</v>
+      </c>
+      <c r="C32">
+        <v>-0.04127630937820385</v>
+      </c>
+      <c r="D32">
+        <v>0.0161573756707261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003850906694899663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007834894105550546</v>
+      </c>
+      <c r="C33">
+        <v>-0.08270098309282041</v>
+      </c>
+      <c r="D33">
+        <v>0.07502507208078704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004981857863564408</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003781441274419541</v>
+      </c>
+      <c r="C34">
+        <v>-0.0575137787265981</v>
+      </c>
+      <c r="D34">
+        <v>0.04805534585889502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003040603033083865</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004913722024026484</v>
+      </c>
+      <c r="C35">
+        <v>-0.03860160509487162</v>
+      </c>
+      <c r="D35">
+        <v>0.01358087112758042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004846479861436518</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001324005767440135</v>
+      </c>
+      <c r="C36">
+        <v>-0.02348534231406686</v>
+      </c>
+      <c r="D36">
+        <v>0.02264228524616411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001696613155761757</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00924570786417162</v>
+      </c>
+      <c r="C38">
+        <v>-0.03197540844866938</v>
+      </c>
+      <c r="D38">
+        <v>0.02194017994021219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01314814728148556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009057229488616396</v>
+      </c>
+      <c r="C39">
+        <v>-0.1152705669519195</v>
+      </c>
+      <c r="D39">
+        <v>0.08514837811845226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008303144850255167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002268661282460446</v>
+      </c>
+      <c r="C40">
+        <v>-0.08676897115186985</v>
+      </c>
+      <c r="D40">
+        <v>0.02235715110687111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0004916499455646678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007371585401190998</v>
+      </c>
+      <c r="C41">
+        <v>-0.03892333603423082</v>
+      </c>
+      <c r="D41">
+        <v>0.03517160609646514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003573732186662324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003476351617545019</v>
+      </c>
+      <c r="C43">
+        <v>-0.05000206787590055</v>
+      </c>
+      <c r="D43">
+        <v>0.0279126611655204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00408808291764085</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003582353148697807</v>
+      </c>
+      <c r="C44">
+        <v>-0.1079289458340002</v>
+      </c>
+      <c r="D44">
+        <v>0.08478885803541092</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00251422178941442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002288121465859693</v>
+      </c>
+      <c r="C46">
+        <v>-0.03446106650827321</v>
+      </c>
+      <c r="D46">
+        <v>0.03132629240885489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007234309689396843</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002745787737290385</v>
+      </c>
+      <c r="C47">
+        <v>-0.03894731281495756</v>
+      </c>
+      <c r="D47">
+        <v>0.02233602065084756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004013308619520583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006393038621973641</v>
+      </c>
+      <c r="C48">
+        <v>-0.02844658633896627</v>
+      </c>
+      <c r="D48">
+        <v>0.03210270357988839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01303605784050512</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01424896431128006</v>
+      </c>
+      <c r="C49">
+        <v>-0.1715686322420181</v>
+      </c>
+      <c r="D49">
+        <v>0.03209824196458205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009304735704732929</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003628986364584513</v>
+      </c>
+      <c r="C50">
+        <v>-0.0423668399439092</v>
+      </c>
+      <c r="D50">
+        <v>0.03607191250060551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001920246632968601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004284730592264641</v>
+      </c>
+      <c r="C51">
+        <v>-0.01986433068017587</v>
+      </c>
+      <c r="D51">
+        <v>0.03285248976662011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0001596478826734191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02027522167131464</v>
+      </c>
+      <c r="C53">
+        <v>-0.1654350151438667</v>
+      </c>
+      <c r="D53">
+        <v>0.04835346815874533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>7.635514324496306e-06</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00862394131709175</v>
+      </c>
+      <c r="C54">
+        <v>-0.05497013498257529</v>
+      </c>
+      <c r="D54">
+        <v>0.04270736650889922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004370636450575716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009288006576264527</v>
+      </c>
+      <c r="C55">
+        <v>-0.1054332389533523</v>
+      </c>
+      <c r="D55">
+        <v>0.05225229873234837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002276252774674919</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01953507369196286</v>
+      </c>
+      <c r="C56">
+        <v>-0.1712576790716255</v>
+      </c>
+      <c r="D56">
+        <v>0.04867445865254744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008537573013133567</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01937626219515963</v>
+      </c>
+      <c r="C58">
+        <v>-0.1031142475401293</v>
+      </c>
+      <c r="D58">
+        <v>0.07109598966880719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.01009305117787527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009596732849718979</v>
+      </c>
+      <c r="C59">
+        <v>-0.1686446353256693</v>
+      </c>
+      <c r="D59">
+        <v>-0.2813109565874107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006473724204594777</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02343064989587732</v>
+      </c>
+      <c r="C60">
+        <v>-0.2216811017193573</v>
+      </c>
+      <c r="D60">
+        <v>0.02890709719187819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01439817868106108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00195690563666498</v>
+      </c>
+      <c r="C61">
+        <v>-0.09450566615164635</v>
+      </c>
+      <c r="D61">
+        <v>0.06357433168109783</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1783113401657913</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1438343250970586</v>
+      </c>
+      <c r="C62">
+        <v>-0.07821510621595298</v>
+      </c>
+      <c r="D62">
+        <v>0.05581081498397789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002031538939077824</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006397213705673273</v>
+      </c>
+      <c r="C63">
+        <v>-0.05900261906756066</v>
+      </c>
+      <c r="D63">
+        <v>0.02610787171455458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005853879040534904</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01471467425999025</v>
+      </c>
+      <c r="C64">
+        <v>-0.1024836764626068</v>
+      </c>
+      <c r="D64">
+        <v>0.06505016282022434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0005555710531767749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01701369717154793</v>
+      </c>
+      <c r="C65">
+        <v>-0.114858438372189</v>
+      </c>
+      <c r="D65">
+        <v>0.02543651983143147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008774085247932363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01230901561339419</v>
+      </c>
+      <c r="C66">
+        <v>-0.1534238293647541</v>
+      </c>
+      <c r="D66">
+        <v>0.1241755390663133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002583259722391444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01537364192611584</v>
+      </c>
+      <c r="C67">
+        <v>-0.06192197250994923</v>
+      </c>
+      <c r="D67">
+        <v>0.03279271246939026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.009958573385449615</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001241732636933016</v>
+      </c>
+      <c r="C68">
+        <v>-0.1069445256086957</v>
+      </c>
+      <c r="D68">
+        <v>-0.2620305687075888</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00294769812490113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005963394528874881</v>
+      </c>
+      <c r="C69">
+        <v>-0.04761296483337189</v>
+      </c>
+      <c r="D69">
+        <v>0.04300178341933358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001751993869164231</v>
+      </c>
+      <c r="C70">
+        <v>-0.002181332358333199</v>
+      </c>
+      <c r="D70">
+        <v>0.00214022235903401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.005876817090613926</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006158809888613944</v>
+      </c>
+      <c r="C71">
+        <v>-0.1101582207821217</v>
+      </c>
+      <c r="D71">
+        <v>-0.2843830761874417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008559165484109909</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01555668939170162</v>
+      </c>
+      <c r="C72">
+        <v>-0.1490725925433122</v>
+      </c>
+      <c r="D72">
+        <v>0.02219240798141894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0125647122663011</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.0293381423656082</v>
+      </c>
+      <c r="C73">
+        <v>-0.2817108765885948</v>
+      </c>
+      <c r="D73">
+        <v>0.04742425019534802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004706918768493475</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001342273019649581</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043962301532564</v>
+      </c>
+      <c r="D74">
+        <v>0.04433271088702996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006421612105799832</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01063410205987505</v>
+      </c>
+      <c r="C75">
+        <v>-0.1311655122714552</v>
+      </c>
+      <c r="D75">
+        <v>0.03254337863302434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01153573234933759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0212210133383441</v>
+      </c>
+      <c r="C76">
+        <v>-0.1463374769185207</v>
+      </c>
+      <c r="D76">
+        <v>0.07215102601352806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0009908605779877285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02429889050502034</v>
+      </c>
+      <c r="C77">
+        <v>-0.1339167032150967</v>
+      </c>
+      <c r="D77">
+        <v>0.06469579298416556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000972108172658229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01427936285022437</v>
+      </c>
+      <c r="C78">
+        <v>-0.09264581160554133</v>
+      </c>
+      <c r="D78">
+        <v>0.06695914315332241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02594229004809027</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03690034272088235</v>
+      </c>
+      <c r="C79">
+        <v>-0.1562374129277034</v>
+      </c>
+      <c r="D79">
+        <v>0.03534057190959707</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005102090353376745</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0103659743724832</v>
+      </c>
+      <c r="C80">
+        <v>-0.04078332266146329</v>
+      </c>
+      <c r="D80">
+        <v>0.03254809084199944</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.002127826565202006</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01457112316963381</v>
+      </c>
+      <c r="C81">
+        <v>-0.121959522889555</v>
+      </c>
+      <c r="D81">
+        <v>0.05776292563017624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005442433279239193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01953150257688755</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419637121028722</v>
+      </c>
+      <c r="D82">
+        <v>0.04623401122868759</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007187426916268437</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009789434908418982</v>
+      </c>
+      <c r="C83">
+        <v>-0.05471155993316898</v>
+      </c>
+      <c r="D83">
+        <v>0.04329819741842669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01326280628793135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01170446621635381</v>
+      </c>
+      <c r="C84">
+        <v>-0.03182313148667576</v>
+      </c>
+      <c r="D84">
+        <v>-0.001277085128048911</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01406757448274612</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02792702372384168</v>
+      </c>
+      <c r="C85">
+        <v>-0.1279913740800669</v>
+      </c>
+      <c r="D85">
+        <v>0.05166724808297771</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003034585435030125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005497325146968786</v>
+      </c>
+      <c r="C86">
+        <v>-0.04926976057923276</v>
+      </c>
+      <c r="D86">
+        <v>0.02136339233660572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008244197250973749</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01021601601228074</v>
+      </c>
+      <c r="C87">
+        <v>-0.1287246318563938</v>
+      </c>
+      <c r="D87">
+        <v>0.07962346270797582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01540473093092657</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002833738849574019</v>
+      </c>
+      <c r="C88">
+        <v>-0.06872020835183305</v>
+      </c>
+      <c r="D88">
+        <v>0.01614725956918098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01850958219351189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.00080899764734647</v>
+      </c>
+      <c r="C89">
+        <v>-0.1613979298927206</v>
+      </c>
+      <c r="D89">
+        <v>-0.3414572968112961</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.006934258394919205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007474825816297367</v>
+      </c>
+      <c r="C90">
+        <v>-0.1399397363854135</v>
+      </c>
+      <c r="D90">
+        <v>-0.3196973438542816</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.00122314663597349</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01021466462949586</v>
+      </c>
+      <c r="C91">
+        <v>-0.1048518564887335</v>
+      </c>
+      <c r="D91">
+        <v>0.02068324468094786</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01555830168365746</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000651315844945681</v>
+      </c>
+      <c r="C92">
+        <v>-0.1499685670185484</v>
+      </c>
+      <c r="D92">
+        <v>-0.3274604886388565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.004374821207634633</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005406935435709876</v>
+      </c>
+      <c r="C93">
+        <v>-0.1239825728255311</v>
+      </c>
+      <c r="D93">
+        <v>-0.313235330267162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003736529775466529</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02223585488181773</v>
+      </c>
+      <c r="C94">
+        <v>-0.1555847946207077</v>
+      </c>
+      <c r="D94">
+        <v>0.03441484780103515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.00464945397964986</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01612364909235839</v>
+      </c>
+      <c r="C95">
+        <v>-0.1240543731095653</v>
+      </c>
+      <c r="D95">
+        <v>0.07039123348556287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.003728342432708239</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03473063424624535</v>
+      </c>
+      <c r="C97">
+        <v>-0.178943721005669</v>
+      </c>
+      <c r="D97">
+        <v>0.04103281610257554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.008424962250828113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0364952864395913</v>
+      </c>
+      <c r="C98">
+        <v>-0.2545716442335744</v>
+      </c>
+      <c r="D98">
+        <v>0.04452892114663885</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9815262320566219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9826672246663771</v>
+      </c>
+      <c r="C99">
+        <v>0.1102856664405017</v>
+      </c>
+      <c r="D99">
+        <v>-0.0320414888274296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002099916297366947</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003291983392083965</v>
+      </c>
+      <c r="C101">
+        <v>-0.0484333914103162</v>
+      </c>
+      <c r="D101">
+        <v>0.01419600126563692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
